--- a/feedback_forms/processed_versions/xl_workbooks/oil_and_gas_operator_feedback_v070_populated_02.xlsx
+++ b/feedback_forms/processed_versions/xl_workbooks/oil_and_gas_operator_feedback_v070_populated_02.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tony_local\pycharm\feedback_portal\feedback_forms\current_versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74E8478-C899-4D55-BF4A-A7E04CF32177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="7f6sX34os1L892rZIuqOCHiMj0wnGsdmhmQVMypazVo/cj1V0IRjqxWSoCHgA61cwfwiMnMUpqoT+U8KYY3yQQ==" workbookSaltValue="QjIE/RWz496oDMkgP360OA==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABAA3D5-C0D3-4DA9-A30B-9BFFA65B1A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Zhif8xWJaaT59PJC6XZoiOIMEFGhshymHXermg9Z6T+783lTHl9y1WBD9JGUGcTG5BH05UvoqkoKPFFiU+tS0g==" workbookSaltValue="ffl06+cUclpuK/XVyrMBKw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="6033" yWindow="2773" windowWidth="19200" windowHeight="11387" xr2:uid="{AD2102A5-37B4-471F-BCEC-083B2F5B9811}"/>
+    <workbookView xWindow="5387" yWindow="2813" windowWidth="19200" windowHeight="11387" xr2:uid="{AD2102A5-37B4-471F-BCEC-083B2F5B9811}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="5" r:id="rId1"/>
@@ -54,7 +54,7 @@
     <definedName name="jinja_venting_description_2">'Feedback Form'!$D$61</definedName>
     <definedName name="jinja_venting_exclusion">'Feedback Form'!$D$49</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4751,7 +4751,7 @@
       <c r="F76" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RTYsb+P1llN8G7LDyiO/t4LnnNU4yupiL497uDcH5z+U0LrYmB+VWSymViwDydUhtE9/8ETvokVqCpRlpRog8g==" saltValue="0lQYz+don5joTgHG4WKwxQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="aOXtlKoXYlh2PliHmcoyMnM7hbX1WE+WCvCKLAEMR/ueXK2skapwHaALpVn/YuYBOsEeWOdhxGmVyatZU17e+g==" saltValue="PPua04P/4a/Zeqt5p6Xl7g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <hyperlinks>
     <hyperlink ref="B27" r:id="rId1" display="1.  Click here for rulemaking process for the Amendments to the Greenhouse Gas Emission Standards for Crude Oil and Natural Gas Facilities " xr:uid="{D116D822-601E-41F0-9F34-2FD3CFC4D140}"/>
     <hyperlink ref="B28" r:id="rId2" display="2.  Click here for the Final Regulation Order Regarding Greenhouse Gas Emission Standards for Crude Oil and Natural Gas Facilities" xr:uid="{CE08B6F2-8BA5-48C8-8DD4-2087484EAC59}"/>
@@ -4944,7 +4944,7 @@
       <c r="D26" s="15"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ejv/NAwLf0UnQf4PDP3DqJ3Ru9jUe7MFLRiX9JYMPc8+RP/k4XRJiYv8/sTe8e7Gt1LdmVpTnKMRqnb108fyfQ==" saltValue="waK01ElnzU4azvjbAXdPyw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="RKmW9rHQ1ymNrQtujoH3q+Xgxq0ziv4NYHvJmZP4ximWA2vZkSv2qJIOUNJ87E7+msBlEPXY6weWsJgbS3v2aA==" saltValue="sbtOJtzAFE+pLLuI7V4f9g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -5636,7 +5636,7 @@
       <c r="G60" s="15"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="AxixE53ClJGpuMrRkySwk+eNKBctaUe/u8Q3+ScP2muvP6sL88zdMOYoVf1XEY5NIuzwm80v1t3UDJiHe8Eg5g==" saltValue="J1wCZlICVPgvUhPauE/xGw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ODOFm9UHHHEpULdIIllN0exEt6aI9wwAwn26gkDzkyuMsDkzpfK0kST3m3jRMSp5ShIYKUUT6QAqdH4Im0cqWQ==" saltValue="SmRM5XaJziFn4ovKOQjq5w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="F1:F48 F50:F1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$B$14</formula>
@@ -6852,7 +6852,7 @@
       <c r="Q92" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="sAzuy6jCbwKcUy7OtqdCAsmo7lCcdnNh7UDSPOD3fvyylU0mGJJ5bbEusGy2+PwtWWKZeEx9P0eZ6IiQhvfhAA==" saltValue="/sv2YTEtf8tmrwGI2qsF0A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Ff7imswFjg+B0c4gj3+KHypPyY7Izw81mJV+Ior7sY+Ll8OgbRrB6BK1vgxAzuFaWh70vkDFEV9/bnhZxfeQng==" saltValue="TINp1ddeYIzuaVGsjmu/Dg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="7">
@@ -6937,7 +6937,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1dTtbL+uO2XoOlv5v69B8C1Wft611rJn4ab/eGClv/rGKh0joy75vAmjd1htzZ/x5eBApvPmT+dpfb2/dL4T2A==" saltValue="DstFRtTpFcZndTbVaS7I8A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5/8nuYwXAD40kg4BmhTCYfOIG6rjJTQ8fTgOBWemu0k0AQbtQ4nwrj9ndnvVS1zZJx2konDFGnmi09EY3GCLRA==" saltValue="far3PIWXJXpzSff/56T9EQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7032,7 +7032,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8gsJZ4zFPxFb49/ct8ov5G+U2v54Gm+sPOszXPOesc8f0p8XZLAJdQ8R2qe17Ajds1tvXL04vce5nZ88AjpJSQ==" saltValue="TlBeXgIzTPhNv5FNVWSQ9A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="eRjSrkweOWCy9B7khg5gQh2kjs11qPdST05Rcgl2JhtV5t4vYzgfEzxsHverAPW9vbS7gOkRlw42wkr+wqg0Zg==" saltValue="n4vQ8U4xJF6LhfA/4rrzaQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7648,7 +7648,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ZuE5rx7pTt56QnRe3SdJRDauVSZYaO0gJ3GREbjbpdBvuntipPEDYnMydTduj7H1itigX3++8kS98VzdqJWE+A==" saltValue="GVVPPNSVV/t7SV6DIUYW2A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="om/gAnF0mtcYKj9ITVP9Z0o3qBI41ALFqb9YRBOlfe5AJiKOUB6zQfrJdStORkeLgxVN2Qb7ylrU42LgxBSetQ==" saltValue="bVi3L+wNU6uAPAh7QzSOTA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:R40">
     <sortCondition ref="A1:A1048576"/>
     <sortCondition ref="B1:B1048576"/>
@@ -7659,17 +7659,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -7678,7 +7667,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000E9A34E7C7C736409D4BDE6375CCC276" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0cf521a6d855790dbe6a6d894ff439cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32" xmlns:ns3="e20ceb87-0d79-402a-b4b9-75d78589c76d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a45aa6d812898c4b0f52b4c3685679ce" ns2:_="" ns3:_="">
     <xsd:import namespace="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
@@ -7913,18 +7902,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{368BC477-8FFD-4C56-8224-F3CCFEFBFA36}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
-    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -7932,7 +7921,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{533C6BB5-3BBA-46E5-A63A-38A55F0F20F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7949,4 +7938,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{368BC477-8FFD-4C56-8224-F3CCFEFBFA36}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
+    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>